--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl5-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl5-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Cxcl5</t>
+  </si>
+  <si>
+    <t>Cxcr1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cxcl5</t>
-  </si>
-  <si>
-    <t>Cxcr1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.103971</v>
+        <v>2.477721333333333</v>
       </c>
       <c r="H2">
-        <v>21.311913</v>
+        <v>7.433164</v>
       </c>
       <c r="I2">
-        <v>0.7394543531840212</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7394543531840212</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,42 +552,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02042033333333334</v>
+        <v>0.0003833333333333333</v>
       </c>
       <c r="N2">
-        <v>0.061261</v>
+        <v>0.00115</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.005317132262509131</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.005317132262509131</v>
       </c>
       <c r="Q2">
-        <v>0.1450654558103334</v>
+        <v>0.0009497931777777777</v>
       </c>
       <c r="R2">
-        <v>1.305589102293</v>
+        <v>0.0085481386</v>
       </c>
       <c r="S2">
-        <v>0.7394543531840212</v>
+        <v>0.005317132262509131</v>
       </c>
       <c r="T2">
-        <v>0.7394543531840212</v>
+        <v>0.005317132262509131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,164 +602,40 @@
         <v>7.433164</v>
       </c>
       <c r="I3">
-        <v>0.2579067152597118</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2579067152597118</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.02042033333333334</v>
+        <v>0.07171066666666667</v>
       </c>
       <c r="N3">
-        <v>0.061261</v>
+        <v>0.215132</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9946828677374909</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9946828677374908</v>
       </c>
       <c r="Q3">
-        <v>0.05059589553377778</v>
+        <v>0.1776790486275556</v>
       </c>
       <c r="R3">
-        <v>0.455363059804</v>
+        <v>1.599111437648</v>
       </c>
       <c r="S3">
-        <v>0.2579067152597118</v>
+        <v>0.9946828677374909</v>
       </c>
       <c r="T3">
-        <v>0.2579067152597118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.007277</v>
-      </c>
-      <c r="H4">
-        <v>0.021831</v>
-      </c>
-      <c r="I4">
-        <v>0.0007574649907946023</v>
-      </c>
-      <c r="J4">
-        <v>0.0007574649907946023</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.02042033333333334</v>
-      </c>
-      <c r="N4">
-        <v>0.061261</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.0001485987656666667</v>
-      </c>
-      <c r="R4">
-        <v>0.001337388891</v>
-      </c>
-      <c r="S4">
-        <v>0.0007574649907946023</v>
-      </c>
-      <c r="T4">
-        <v>0.0007574649907946023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.01807533333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.054226</v>
-      </c>
-      <c r="I5">
-        <v>0.001881466565472406</v>
-      </c>
-      <c r="J5">
-        <v>0.001881466565472406</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.02042033333333334</v>
-      </c>
-      <c r="N5">
-        <v>0.061261</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.0003691043317777778</v>
-      </c>
-      <c r="R5">
-        <v>0.003321938986</v>
-      </c>
-      <c r="S5">
-        <v>0.001881466565472406</v>
-      </c>
-      <c r="T5">
-        <v>0.001881466565472406</v>
+        <v>0.9946828677374908</v>
       </c>
     </row>
   </sheetData>
